--- a/utils/config/ReferenceLists/Result_Grades.xlsx
+++ b/utils/config/ReferenceLists/Result_Grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcgov-my.sharepoint.com/personal/sahil_bhandari_gov_bc_ca/Documents/teamdocs/GitHub/aqs-api/utils/config/ReferenceLists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F4AE323100F96510B2F70869B802437D4FCB04E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61C4B9AC-384E-45AB-BF29-0C299BB66CB0}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_F4AE323100F96510B2F70869B802437D4FCB04E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A33395C-4248-4311-803B-6CBE9D430B7B}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>customId</t>
   </si>
@@ -34,13 +34,19 @@
     <t>Ungraded</t>
   </si>
   <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Fair</t>
+  </si>
+  <si>
+    <t>systemCode</t>
+  </si>
+  <si>
+    <t>UNKNOWN</t>
+  </si>
+  <si>
     <t>Very Poor</t>
-  </si>
-  <si>
-    <t>Excellent</t>
-  </si>
-  <si>
-    <t>Fair</t>
   </si>
 </sst>
 </file>
@@ -393,45 +399,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
